--- a/biology/Botanique/Succisa_pratensis/Succisa_pratensis.xlsx
+++ b/biology/Botanique/Succisa_pratensis/Succisa_pratensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Succise des prés, Mors-du-Diable
-La Succise des prés ou Mors-du-Diable, Succisa pratensis, est une espèce de plantes herbacées de la famille des Dipsacacées selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliacées selon la classification phylogénétique (APG III). C'est une des principales plantes hôtes de la chenille du Damier de la succise.
+La Succise des prés ou Mors-du-Diable, Succisa pratensis, est une espèce de plantes herbacées de la famille des Dipsacacées selon la classification classique de Cronquist (1981), de la famille des Caprifoliacées selon la classification phylogénétique (APG III). C'est une des principales plantes hôtes de la chenille du Damier de la succise.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace de 30 cm à 1 mètre, glabre ou pubescente, à souche courte, tronquée, sans stolons ; feuilles toutes entières ou dentées, ovales ou oblongues, les supérieures lancéolées ; pédoncules pubescents ; fleurs bleues, rarement roses ou blanches, toutes semblables, non rayonnantes, à 4 lobes égaux ; têtes florifères hémisphériques, les fructifères globuleuses ; involucre à folioles sur 2-3 rangs ; calicule très velu, à limbe herbacé, divisé en 4 lobes dressés, ovales-aigus ; calice terminé par 5 arêtes noirâtres, deux fois plus longues que le limbe du calicule[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 30 cm à 1 mètre, glabre ou pubescente, à souche courte, tronquée, sans stolons ; feuilles toutes entières ou dentées, ovales ou oblongues, les supérieures lancéolées ; pédoncules pubescents ; fleurs bleues, rarement roses ou blanches, toutes semblables, non rayonnantes, à 4 lobes égaux ; têtes florifères hémisphériques, les fructifères globuleuses ; involucre à folioles sur 2-3 rangs ; calicule très velu, à limbe herbacé, divisé en 4 lobes dressés, ovales-aigus ; calice terminé par 5 arêtes noirâtres, deux fois plus longues que le limbe du calicule.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison : de juillet à octobre.
 Pollinisation : entomogame.
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés et bois humides, dans toute la France. Europe ; Caucase, Sibérie ; Afrique septentrionale. Elle peut croître jusqu'à 2 400 m d'altitude en Europe occidentale.
 </t>
